--- a/실무_엑셀_예제_파일/Chapter06/06-010.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-010.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC27C9B3-860A-4284-8946-27DC4F08C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F33DF16-6CB0-48C7-A34B-87C46F69BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2565" windowWidth="16440" windowHeight="29040" xr2:uid="{DFF496D2-915E-4716-8CB2-760157D8B542}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{DFF496D2-915E-4716-8CB2-760157D8B542}"/>
   </bookViews>
   <sheets>
-    <sheet name="나이대별" sheetId="5" r:id="rId1"/>
-    <sheet name="원본데이터" sheetId="1" r:id="rId2"/>
+    <sheet name="광주" sheetId="14" r:id="rId1"/>
+    <sheet name="대구" sheetId="13" r:id="rId2"/>
+    <sheet name="대전" sheetId="12" r:id="rId3"/>
+    <sheet name="부산" sheetId="11" r:id="rId4"/>
+    <sheet name="서울" sheetId="10" r:id="rId5"/>
+    <sheet name="세종" sheetId="9" r:id="rId6"/>
+    <sheet name="울산" sheetId="8" r:id="rId7"/>
+    <sheet name="인천" sheetId="7" r:id="rId8"/>
+    <sheet name="제주" sheetId="6" r:id="rId9"/>
+    <sheet name="나이대별" sheetId="5" r:id="rId10"/>
+    <sheet name="원본데이터" sheetId="1" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="98" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="327">
   <si>
     <t>figurewatching</t>
   </si>
@@ -1116,11 +1116,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1132,16 +1129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,13 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1181,7 +1166,115 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -2802,7 +2895,146 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2894,7 +3126,7 @@
     <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2903,7 +3135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2912,7 +3144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2921,7 +3153,1110 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB704191-9EAA-48EE-9CF8-5677C85945D2}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="8" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="평균 : 수량" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="평균 : 금액" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3239,135 +4574,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F8DE89-76A0-49BD-B049-CBABA072FA62}">
-  <dimension ref="B1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31447F56-2BCD-457C-8858-AE069D2E4A10}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="6" width="14.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="16">
-        <v>7.0612244897959187</v>
-      </c>
-      <c r="D4" s="6">
-        <v>184836.73469387754</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B4" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="C4" s="4">
+        <v>210766.66666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="16">
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>175700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
-        <v>157180.76923076922</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="4">
+        <v>280900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="11">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="C7" s="4">
+        <v>178116.66666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="C8" s="4">
+        <v>171233.33333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="16">
-        <v>7.2142857142857144</v>
-      </c>
-      <c r="D6" s="6">
-        <v>204928.57142857142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>86500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="16">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
-        <v>233477.77777777778</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="16">
-        <v>8.4418604651162799</v>
-      </c>
-      <c r="D8" s="6">
-        <v>190923.2558139535</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="16">
-        <v>8.3571428571428577</v>
-      </c>
-      <c r="D9" s="6">
-        <v>176650</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="16">
-        <v>9.2222222222222214</v>
-      </c>
-      <c r="D10" s="6">
-        <v>218922.22222222222</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="16">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="D11" s="6">
-        <v>215533.33333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B10" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>234250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="16">
-        <v>7.7065217391304346</v>
-      </c>
-      <c r="D12" s="6">
-        <v>187681.52173913043</v>
+      <c r="B11" s="11">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="C11" s="4">
+        <v>189000</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +4694,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F8DE89-76A0-49BD-B049-CBABA072FA62}">
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="11">
+        <v>7.0612244897959187</v>
+      </c>
+      <c r="D4" s="4">
+        <v>184836.73469387754</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>157180.76923076922</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7.2142857142857144</v>
+      </c>
+      <c r="D6" s="4">
+        <v>204928.57142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>233477.77777777778</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8.4418604651162799</v>
+      </c>
+      <c r="D8" s="4">
+        <v>190923.2558139535</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="11">
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="D9" s="4">
+        <v>176650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9.2222222222222214</v>
+      </c>
+      <c r="D10" s="4">
+        <v>218922.22222222222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D11" s="4">
+        <v>215533.33333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7.7065217391304346</v>
+      </c>
+      <c r="D12" s="4">
+        <v>187681.52173913043</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDDDD57-46C9-421F-8509-5ECE2CB48C03}">
   <dimension ref="B1:L154"/>
   <sheetViews>
@@ -3384,3549 +4842,3548 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" customWidth="1"/>
     <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="2"/>
-    <col min="8" max="8" width="12" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="4" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="15" width="8.375" customWidth="1"/>
+    <col min="14" max="15" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="str">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="14" t="str">
         <f ca="1">"랄라스타일 " &amp; YEAR(TODAY()) &amp; "년 사용자별 구매 현황"</f>
-        <v>랄라스타일 2022년 사용자별 구매 현황</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+        <v>랄라스타일 2025년 사용자별 구매 현황</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>24</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>92600</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>11</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>190800</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>20</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>84000</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>193200</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>27</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>80000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>25</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>137200</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>8</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>151800</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>26</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>135200</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>28</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>8</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>201500</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>22</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>65200</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>22</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>101800</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>29</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>9</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>143100</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>29</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>92000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>26</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>176000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>23</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>84400</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>23</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>118500</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>28</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>235800</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>30</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>6</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>169100</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>24</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>9</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>214200</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>29</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>92000</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>30</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>12</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>306400</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>25</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>6</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>144000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>27</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>9</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>222300</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>30</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>104700</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>25</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>6</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>129000</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>29</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>58700</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>29</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>11</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>250500</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>30</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>10</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>195000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>20</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>8</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>176800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>29</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>15</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>366000</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>26</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>14</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>266000</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>21</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>9</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>193500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>25</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>89700</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>28</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>12</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="5">
         <v>267600</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>23</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>10</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>243000</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>24</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>5</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>88000</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>29</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>7</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="5">
         <v>114100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>22</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>8</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>163800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>23</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>7</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="5">
         <v>154600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>26</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>5</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="5">
         <v>104000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>25</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>12</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>249600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>20</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>148200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>25</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>7</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>114100</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>26</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>5</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="5">
         <v>100500</v>
       </c>
       <c r="L48"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>22</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>11</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>179300</v>
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>28</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>6</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="5">
         <v>103500</v>
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>24</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>6</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <v>107000</v>
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>20</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>6</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="5">
         <v>106800</v>
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>21</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>7</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="5">
         <v>165800</v>
       </c>
       <c r="L53"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>21</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>10</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>220800</v>
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>26</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>15</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <v>357000</v>
       </c>
       <c r="L55"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>26</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>8</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <v>155500</v>
       </c>
       <c r="L56"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>22</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>11</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <v>268400</v>
       </c>
       <c r="L57"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>28</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>13</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="5">
         <v>250900</v>
       </c>
       <c r="L58"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>23</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="5">
         <v>65600</v>
       </c>
       <c r="L59"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>27</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>10</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="5">
         <v>162000</v>
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>23</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>5</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <v>107000</v>
       </c>
       <c r="L61"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>26</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>6</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="5">
         <v>120100</v>
       </c>
       <c r="L62"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>26</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>8</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="5">
         <v>230000</v>
       </c>
       <c r="L63"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>23</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>4</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="5">
         <v>98000</v>
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>29</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>15</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="5">
         <v>316500</v>
       </c>
       <c r="L65"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>26</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>13</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="5">
         <v>182900</v>
       </c>
       <c r="L66"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>22</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>8</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="5">
         <v>190400</v>
       </c>
       <c r="L67"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>22</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>4</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="5">
         <v>115000</v>
       </c>
       <c r="L68"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>29</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>15</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="5">
         <v>255000</v>
       </c>
       <c r="L69"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>21</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>15</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="5">
         <v>372000</v>
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>30</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>5</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="5">
         <v>86500</v>
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B72" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>22</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>6</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="5">
         <v>142100</v>
       </c>
       <c r="L72"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B73" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>29</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="3">
         <v>10</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="5">
         <v>207000</v>
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B74" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>22</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <v>8</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="5">
         <v>138000</v>
       </c>
       <c r="L74"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B75" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>23</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <v>8</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="5">
         <v>191200</v>
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>30</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <v>12</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="5">
         <v>189600</v>
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B77" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>26</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <v>8</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="5">
         <v>167200</v>
       </c>
       <c r="L77"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B78" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>27</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <v>8</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="5">
         <v>150900</v>
       </c>
       <c r="L78"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B79" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>22</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <v>4</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="5">
         <v>77200</v>
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B80" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>26</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <v>8</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="5">
         <v>180800</v>
       </c>
       <c r="L80"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>26</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <v>10</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="5">
         <v>176000</v>
       </c>
       <c r="L81"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B82" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <v>20</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <v>7</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="5">
         <v>199600</v>
       </c>
       <c r="L82"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="4" t="s">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B83" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>30</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <v>11</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="5">
         <v>203500</v>
       </c>
       <c r="L83"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="4" t="s">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>20</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <v>7</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="5">
         <v>175500</v>
       </c>
       <c r="L84"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B85" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>28</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="3">
         <v>14</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="5">
         <v>284200</v>
       </c>
       <c r="L85"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="4" t="s">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B86" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>23</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <v>12</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="5">
         <v>253200</v>
       </c>
       <c r="L86"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="4" t="s">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B87" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>27</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="3">
         <v>6</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="5">
         <v>113900</v>
       </c>
       <c r="L87"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="4" t="s">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B88" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <v>21</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <v>6</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="5">
         <v>138700</v>
       </c>
       <c r="L88"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="3">
         <v>27</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="3">
         <v>12</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="5">
         <v>181200</v>
       </c>
       <c r="L89"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="4" t="s">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>20</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <v>7</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="5">
         <v>127200</v>
       </c>
       <c r="L90"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>22</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>13</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="5">
         <v>209300</v>
       </c>
       <c r="L91"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="4" t="s">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>26</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <v>4</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="5">
         <v>101700</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="3">
         <v>25</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="3">
         <v>9</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="5">
         <v>140400</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="4" t="s">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="3">
         <v>23</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>8</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="5">
         <v>213400</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B95" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="3">
         <v>20</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="3">
         <v>12</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="5">
         <v>296400</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="4" t="s">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B96" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="3">
         <v>25</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="3">
         <v>11</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="5">
         <v>191000</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="4" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B97" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="3">
         <v>27</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="3">
         <v>13</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="5">
         <v>289900</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="4" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B98" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="3">
         <v>22</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="3">
         <v>12</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="5">
         <v>259200</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="4" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B99" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="3">
         <v>26</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="3">
         <v>7</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="5">
         <v>147000</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="4" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B100" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="3">
         <v>24</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="3">
         <v>10</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="5">
         <v>282900</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="4" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B101" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="3">
         <v>26</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="3">
         <v>15</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="5">
         <v>277500</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B102" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="3">
         <v>20</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="3">
         <v>14</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="5">
         <v>242200</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B103" s="4" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B103" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="3">
         <v>23</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="3">
         <v>7</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="5">
         <v>166600</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B104" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="3">
         <v>25</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="3">
         <v>9</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="5">
         <v>153000</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B105" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="3">
         <v>30</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="3">
         <v>4</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="5">
         <v>85600</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B106" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="3">
         <v>21</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="3">
         <v>3</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="5">
         <v>74500</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B107" s="4" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B107" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="3">
         <v>29</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="3">
         <v>6</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="5">
         <v>136600</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B108" s="4" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B108" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="3">
         <v>24</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="3">
         <v>7</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="5">
         <v>159200</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B109" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="3">
         <v>20</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="3">
         <v>10</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="5">
         <v>207000</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B110" s="4" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B110" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="3">
         <v>23</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="3">
         <v>4</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="5">
         <v>71600</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B111" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="3">
         <v>29</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="3">
         <v>11</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="5">
         <v>250500</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B112" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E112" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="3">
         <v>28</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>12</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="5">
         <v>291200</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B113" s="4" t="s">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B113" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="3">
         <v>30</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="3">
         <v>7</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="5">
         <v>173100</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B114" s="4" t="s">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B114" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="3">
         <v>23</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="3">
         <v>11</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="5">
         <v>240400</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B115" s="4" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B115" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="3">
         <v>20</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="3">
         <v>3</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="5">
         <v>80400</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B116" s="4" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B116" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="3">
         <v>28</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="3">
         <v>10</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="5">
         <v>182900</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B117" s="4" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B117" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="3">
         <v>28</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="3">
         <v>10</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="5">
         <v>227700</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B118" s="4" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B118" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="3">
         <v>25</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="3">
         <v>9</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="5">
         <v>241200</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B119" s="4" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B119" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="3">
         <v>23</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="3">
         <v>12</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="5">
         <v>222200</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B120" s="4" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B120" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="3">
         <v>27</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="3">
         <v>6</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="5">
         <v>145200</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B121" s="4" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B121" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="3">
         <v>30</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="3">
         <v>11</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="5">
         <v>309900</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B122" s="4" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B122" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="3">
         <v>27</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="3">
         <v>10</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="5">
         <v>214000</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B123" s="4" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B123" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="3">
         <v>25</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="3">
         <v>10</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="5">
         <v>234600</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B124" s="4" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B124" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="3">
         <v>30</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="3">
         <v>6</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="5">
         <v>113900</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B125" s="4" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B125" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="3">
         <v>28</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="3">
         <v>14</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="5">
         <v>291200</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B126" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E126" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="3">
         <v>24</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="3">
         <v>7</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="5">
         <v>145600</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B127" s="4" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B127" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="3">
         <v>30</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="3">
         <v>4</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="5">
         <v>94400</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B128" s="4" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B128" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="3">
         <v>30</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="3">
         <v>4</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="5">
         <v>81900</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B129" s="4" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B129" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="3">
         <v>22</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="3">
         <v>9</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="5">
         <v>258800</v>
       </c>
     </row>
-    <row r="130" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B130" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="E130" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="3">
         <v>31</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="3">
         <v>8</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H130" s="5">
         <v>212800</v>
       </c>
-      <c r="L130" s="15"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B131" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E131" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="3">
         <v>34</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="3">
         <v>8</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="5">
         <v>316500</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B132" s="4" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B132" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E132" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="3">
         <v>40</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="3">
         <v>10</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="5">
         <v>258000</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B133" s="4" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B133" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="3">
         <v>37</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="3">
         <v>4</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H133" s="5">
         <v>149500</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B134" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="3">
         <v>31</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="3">
         <v>7</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="5">
         <v>280900</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B135" s="4" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B135" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="3">
         <v>32</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="3">
         <v>12</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="5">
         <v>322800</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B136" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="3">
         <v>34</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="3">
         <v>12</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="5">
         <v>376800</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B137" s="4" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B137" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="3">
         <v>38</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="3">
         <v>5</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="5">
         <v>170500</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="4" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B138" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E138" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="3">
         <v>39</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="3">
         <v>10</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="5">
         <v>298000</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B139" s="4" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B139" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E139" s="12" t="s">
+      <c r="E139" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="3">
         <v>37</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="3">
         <v>6</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="5">
         <v>180000</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B140" s="4" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B140" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="E140" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="3">
         <v>31</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="3">
         <v>2</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="5">
         <v>74800</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="4" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B141" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E141" s="12" t="s">
+      <c r="E141" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="3">
         <v>37</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="3">
         <v>9</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="5">
         <v>236700</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="4" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B142" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="3">
         <v>35</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="3">
         <v>8</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="5">
         <v>278800</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B143" s="4" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B143" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="3">
         <v>31</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="3">
         <v>9</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="5">
         <v>331200</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B144" s="4" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B144" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="E144" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="3">
         <v>38</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="3">
         <v>10</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="5">
         <v>302500</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B145" s="4" t="s">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B145" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="3">
         <v>38</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="3">
         <v>6</v>
       </c>
-      <c r="H145" s="7">
+      <c r="H145" s="5">
         <v>178700</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B146" s="4" t="s">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B146" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="3">
         <v>40</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="3">
         <v>10</v>
       </c>
-      <c r="H146" s="7">
+      <c r="H146" s="5">
         <v>377200</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B147" s="4" t="s">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B147" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="3">
         <v>30</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="3">
         <v>14</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="5">
         <v>307100</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B148" s="4" t="s">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B148" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E148" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="3">
         <v>35</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="3">
         <v>6</v>
       </c>
-      <c r="H148" s="7">
+      <c r="H148" s="5">
         <v>150000</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B149" s="4" t="s">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B149" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="3">
         <v>35</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="3">
         <v>6</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="5">
         <v>217400</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B150" s="4" t="s">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B150" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E150" s="12" t="s">
+      <c r="E150" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="3">
         <v>35</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="3">
         <v>10</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="5">
         <v>309400</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B151" s="4" t="s">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B151" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E151" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="3">
         <v>36</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="3">
         <v>4</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="5">
         <v>137100</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B152" s="4" t="s">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B152" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="3">
         <v>36</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="3">
         <v>5</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="5">
         <v>150700</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B153" s="4" t="s">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B153" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F153" s="4">
+      <c r="F153" s="3">
         <v>34</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="3">
         <v>9</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="5">
         <v>288900</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B154" s="4" t="s">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B154" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="3">
         <v>33</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="3">
         <v>6</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="5">
         <v>213900</v>
       </c>
     </row>
@@ -6938,4 +8395,939 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFD2A0B-91B7-447F-9F29-173628EA7297}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>7.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>176337.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="C5" s="4">
+        <v>181433.33333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>104700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>217400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7.375</v>
+      </c>
+      <c r="C8" s="4">
+        <v>190662.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>142100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="11">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>376800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="11">
+        <v>7.3125</v>
+      </c>
+      <c r="C12" s="4">
+        <v>183500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F8FFE-D1D5-452A-A072-DDDDE4A4FDB9}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>295080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>154600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>320550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>339850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>160466.66666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>153560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8.6363636363636367</v>
+      </c>
+      <c r="C11" s="4">
+        <v>221654.54545454544</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B9673-D4DF-4ED1-BC54-E3F0992B4807}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>161020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>133800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>129350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>278800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9.75</v>
+      </c>
+      <c r="C8" s="4">
+        <v>227300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="C9" s="4">
+        <v>232133.33333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>212800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="11">
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="C11" s="4">
+        <v>190477.77777777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91D6C9E-C038-48A7-BBED-5CEFC38A43FD}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="C4" s="4">
+        <v>168483.33333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>166500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>81900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>198666.66666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="C8" s="4">
+        <v>220200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>255300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="C11" s="4">
+        <v>185722.22222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42917B11-F2E0-4EF2-87DA-EE472CEA833D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="C4" s="4">
+        <v>173633.33333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C5" s="4">
+        <v>199500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>113900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>164700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <v>209420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9.25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>202600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>236700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8.0909090909090917</v>
+      </c>
+      <c r="C11" s="4">
+        <v>189900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B1CE3-C782-4BA4-ACCE-C5DE0B650B14}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>176425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>129733.33333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="C7" s="4">
+        <v>178350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>146850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>194100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="11">
+        <v>7.9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>177580</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE1FAA4-41C6-46CB-A261-7905AB752625}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>138720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>149900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>121950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C7" s="4">
+        <v>178766.66666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C8" s="4">
+        <v>178766.66666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>153737.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305398E5-20CC-443D-B675-E6F845143BDC}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="11">
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="C4" s="4">
+        <v>183071.42857142858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>113525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="C6" s="4">
+        <v>275800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>214800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>106800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="11">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>322800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>190122.22222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>